--- a/PBSS5480X Motor Driver/docs/BlockDiagram.xlsx
+++ b/PBSS5480X Motor Driver/docs/BlockDiagram.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32043a1c35677385/Documents/Github/DCMotorDriver/PBSS5480X Motor Driver/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\OneDrive\Documents\Github\DCMotorDriver\PBSS5480X Motor Driver\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{0236F018-B279-4D76-AEEF-48070CB33C9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{35068CD9-51FB-488A-9151-107725C7BBA5}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{0236F018-B279-4D76-AEEF-48070CB33C9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{6DC459AA-E079-4F05-B59C-F70664F9C11C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9576" xr2:uid="{7B5B47A0-58CD-4618-B0A2-B6BF114C63F0}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -119,14 +119,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>289388</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>102713</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>8119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>87425</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>56808</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>146145</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -149,8 +149,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7604588" y="5008821"/>
-          <a:ext cx="407637" cy="499217"/>
+          <a:off x="7604588" y="5242271"/>
+          <a:ext cx="407637" cy="505888"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -207,14 +207,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>275907</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>151425</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>51574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>73944</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>100693</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>842</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -237,8 +237,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7591107" y="3967287"/>
-          <a:ext cx="407637" cy="494391"/>
+          <a:off x="7591107" y="3998208"/>
+          <a:ext cx="407637" cy="501062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -380,8 +380,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>15766</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -396,8 +396,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="1890713"/>
-          <a:ext cx="2141220" cy="4542472"/>
+          <a:off x="2430780" y="1820425"/>
+          <a:ext cx="2141220" cy="5084872"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -872,14 +872,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>607254</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>157917</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>142434</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -894,8 +894,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5484054" y="4974688"/>
-          <a:ext cx="754380" cy="348175"/>
+          <a:off x="5484054" y="5208138"/>
+          <a:ext cx="754380" cy="352622"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -934,14 +934,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>142434</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>60961</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>150298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>230772</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>60961</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>150298</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -958,7 +958,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6238434" y="5148776"/>
+          <a:off x="6238434" y="5384450"/>
           <a:ext cx="88338" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -987,14 +987,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>303875</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>60961</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>150298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>607254</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>69527</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>158864</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1012,7 +1012,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4571075" y="5148776"/>
+          <a:off x="4571075" y="5384450"/>
           <a:ext cx="912979" cy="8566"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1496,14 +1496,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>363746</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>118736</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>24142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>303875</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>20316</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>109653</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1518,8 +1518,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4021346" y="5024844"/>
-          <a:ext cx="549729" cy="264995"/>
+          <a:off x="4021346" y="5258294"/>
+          <a:ext cx="549729" cy="269442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1946,14 +1946,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>100693</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>842</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>479726</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114997</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>15146</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1971,7 +1971,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7239000" y="4461678"/>
+          <a:off x="7239000" y="4499270"/>
           <a:ext cx="555926" cy="14304"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -2004,14 +2004,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>536159</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>151425</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>51574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>479726</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171349</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>71497</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2029,8 +2029,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7241759" y="3967287"/>
-          <a:ext cx="553167" cy="201631"/>
+          <a:off x="7241759" y="3998208"/>
+          <a:ext cx="553167" cy="203855"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
@@ -2065,14 +2065,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>539262</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>56807</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>146144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>493207</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>68105</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>157442</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2090,7 +2090,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7244862" y="5508038"/>
+          <a:off x="7244862" y="5748158"/>
           <a:ext cx="563545" cy="11298"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -2123,14 +2123,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>547877</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>102713</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>8119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>493207</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57584</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>146921</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2148,8 +2148,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7253477" y="5008821"/>
-          <a:ext cx="554930" cy="136578"/>
+          <a:off x="7253477" y="5242271"/>
+          <a:ext cx="554930" cy="138802"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
@@ -2206,8 +2206,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="918478" y="4167681"/>
-          <a:ext cx="2129521" cy="498741"/>
+          <a:off x="918478" y="4328364"/>
+          <a:ext cx="2129521" cy="521932"/>
           <a:chOff x="918478" y="4434381"/>
           <a:chExt cx="2129521" cy="521932"/>
         </a:xfrm>
@@ -2532,8 +2532,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="905226" y="4614942"/>
-          <a:ext cx="2129521" cy="498740"/>
+          <a:off x="905226" y="4798816"/>
+          <a:ext cx="2129521" cy="521931"/>
           <a:chOff x="918478" y="4434381"/>
           <a:chExt cx="2129521" cy="521932"/>
         </a:xfrm>
@@ -2858,8 +2858,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="911852" y="5050055"/>
-          <a:ext cx="2129521" cy="498741"/>
+          <a:off x="911852" y="5249390"/>
+          <a:ext cx="2129521" cy="521932"/>
           <a:chOff x="918478" y="4434381"/>
           <a:chExt cx="2129521" cy="521932"/>
         </a:xfrm>
@@ -3184,8 +3184,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="911852" y="5563578"/>
-          <a:ext cx="2129521" cy="498740"/>
+          <a:off x="911852" y="5786104"/>
+          <a:ext cx="2129521" cy="521931"/>
           <a:chOff x="918478" y="4434381"/>
           <a:chExt cx="2129521" cy="521932"/>
         </a:xfrm>
@@ -3494,7 +3494,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>161365</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3707,8 +3707,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="255046" y="2998913"/>
-          <a:ext cx="2529459" cy="1015948"/>
+          <a:off x="255046" y="3113213"/>
+          <a:ext cx="2529459" cy="1062331"/>
           <a:chOff x="281940" y="2005167"/>
           <a:chExt cx="2529459" cy="1035214"/>
         </a:xfrm>
@@ -4253,14 +4253,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>231353</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>151368</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>56774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>547877</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>145506</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>50912</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4275,8 +4275,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6327353" y="4992309"/>
-          <a:ext cx="926124" cy="173432"/>
+          <a:off x="6327353" y="5290926"/>
+          <a:ext cx="926124" cy="178069"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -4451,14 +4451,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>363746</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>179349</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>79498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>536159</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>164110</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>64259</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4473,8 +4473,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4021346" y="3824249"/>
-          <a:ext cx="3220413" cy="340361"/>
+          <a:off x="4021346" y="4055150"/>
+          <a:ext cx="3220413" cy="355822"/>
           <a:chOff x="4021346" y="4165209"/>
           <a:chExt cx="3220413" cy="348176"/>
         </a:xfrm>
@@ -4710,308 +4710,363 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>202051</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>29429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>430650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>30176</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Flowchart: Terminator 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09FFF795-8841-4A85-A51D-9EC46445CF1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6298051" y="2520838"/>
+          <a:ext cx="838199" cy="186277"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> -  M1(-)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>86762</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>116548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>207912</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>118740</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Straight Connector 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01046E66-50D1-4330-93C1-24B03C231010}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6182762" y="2607957"/>
+          <a:ext cx="121150" cy="2192"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>498231</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>140677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>42477</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="TextBox 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AFB95AE-5F10-42E9-8EED-7BF77B31CDF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4765431" y="2261025"/>
+          <a:ext cx="549729" cy="272861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1" u="none"/>
+            <a:t>M1-i</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>603738</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>328246</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15986</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Straight Connector 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FADFC49-A860-408A-9BC7-707AF9DCC2D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4870938" y="2507395"/>
+          <a:ext cx="334108" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>163497</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>42477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>492370</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>135562</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Connector: Elbow 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E84540EA-A50C-407C-97D1-0D4ACF1712E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="72" idx="1"/>
+          <a:endCxn id="77" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5040297" y="2533886"/>
+          <a:ext cx="328873" cy="93085"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>492369</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>34010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104335</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>51585</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="99" name="Group 98">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Rectangle 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E6094F9-C7EC-4F69-BBE9-752954AB1C37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F321B2F-3A75-4A50-B291-A9B99188AF08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="4765431" y="2185377"/>
-          <a:ext cx="2370819" cy="444308"/>
-          <a:chOff x="4765431" y="2321169"/>
-          <a:chExt cx="2370819" cy="456031"/>
+          <a:off x="5369169" y="2525419"/>
+          <a:ext cx="831166" cy="203105"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="Flowchart: Terminator 23">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09FFF795-8841-4A85-A51D-9EC46445CF1F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6298051" y="2574609"/>
-            <a:ext cx="838199" cy="181708"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartTerminator">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-              <a:t>7</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t> -  M1(-)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="76" name="Straight Connector 75">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01046E66-50D1-4330-93C1-24B03C231010}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="6182762" y="2659591"/>
-            <a:ext cx="121150" cy="2138"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="38100"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="77" name="TextBox 76">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AFB95AE-5F10-42E9-8EED-7BF77B31CDF3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4765431" y="2321169"/>
-            <a:ext cx="549729" cy="266168"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="800" b="1" u="none"/>
-              <a:t>M1-i</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="79" name="Straight Connector 78">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FADFC49-A860-408A-9BC7-707AF9DCC2D0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4870938" y="2561495"/>
-            <a:ext cx="334108" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="82" name="Connector: Elbow 81">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E84540EA-A50C-407C-97D1-0D4ACF1712E2}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="72" idx="1"/>
-            <a:endCxn id="77" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="5040297" y="2587337"/>
-            <a:ext cx="328873" cy="90802"/>
-          </a:xfrm>
-          <a:prstGeom prst="bentConnector2">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="72" name="Rectangle 71">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F321B2F-3A75-4A50-B291-A9B99188AF08}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5369169" y="2579077"/>
-            <a:ext cx="831166" cy="198123"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>I Sense</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t> I/F</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>I Sense</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> I/F</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -5040,8 +5095,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4800610" y="3109544"/>
-          <a:ext cx="2370819" cy="444308"/>
+          <a:off x="4800610" y="3223844"/>
+          <a:ext cx="2370819" cy="467499"/>
           <a:chOff x="4765431" y="2321169"/>
           <a:chExt cx="2370819" cy="456031"/>
         </a:xfrm>
@@ -5324,14 +5379,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>527539</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>140678</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>40826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>51586</xdr:rowOff>
+      <xdr:rowOff>135666</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5346,8 +5401,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4794739" y="3963378"/>
-          <a:ext cx="2444261" cy="444308"/>
+          <a:off x="4794739" y="4202009"/>
+          <a:ext cx="2444261" cy="465900"/>
           <a:chOff x="4765431" y="2321169"/>
           <a:chExt cx="2444261" cy="456031"/>
         </a:xfrm>
@@ -5630,14 +5685,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>93786</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>183123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>539262</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>4694</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>94031</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5652,8 +5707,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4800601" y="4983286"/>
-          <a:ext cx="2444261" cy="444308"/>
+          <a:off x="4800601" y="5457488"/>
+          <a:ext cx="2444261" cy="467500"/>
           <a:chOff x="4765431" y="2321169"/>
           <a:chExt cx="2444261" cy="456031"/>
         </a:xfrm>
@@ -5930,6 +5985,1282 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68317</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>84083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8446</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>169814</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="TextBox 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46113418-1894-4946-BB42-010322D9BF7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3116317" y="903890"/>
+          <a:ext cx="549729" cy="269662"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1" u="none"/>
+            <a:t>VEE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>173824</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>143323</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>507932</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>143323</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="Straight Connector 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E2F4906-62FB-425F-8A31-96EF0FE50E4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3221824" y="1147061"/>
+          <a:ext cx="334108" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>169814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>343182</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Connector: Elbow 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2518EF54-66E8-4264-930F-3F356B7FBAD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="131" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2781300" y="1173552"/>
+          <a:ext cx="609882" cy="75077"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>42042</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>73573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>591771</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>159304</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="Group 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FDEB158-E16B-493B-B8DD-73A0094A386E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5528442" y="1637330"/>
+          <a:ext cx="549729" cy="271261"/>
+          <a:chOff x="5549462" y="1629104"/>
+          <a:chExt cx="549729" cy="269662"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="133" name="TextBox 132">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D56EB37F-3A20-4757-AD4D-C54A57ECEC71}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5549462" y="1629104"/>
+            <a:ext cx="549729" cy="269662"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="800" b="1" u="none"/>
+              <a:t>VEE</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="135" name="Straight Connector 134">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BBE575D-32E3-45A0-A1F3-90DF4926DA5C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5654969" y="1872275"/>
+            <a:ext cx="334108" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>316907</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>159304</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>319172</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>119579</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Connector: Elbow 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D628F3E-E505-4855-9374-055B98E6EB25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="0"/>
+          <a:endCxn id="133" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="5732337" y="1969736"/>
+          <a:ext cx="144206" cy="2265"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>94593</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>178677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>34722</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80477</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="137" name="Group 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F4C109C-4AF9-4F3A-BD7B-2DA4DEACB7D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5580993" y="2670086"/>
+          <a:ext cx="549729" cy="272861"/>
+          <a:chOff x="5549462" y="1629104"/>
+          <a:chExt cx="549729" cy="269662"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="139" name="TextBox 138">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0DDB3F-4E0C-4B39-8214-D0E7BD03AE94}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5549462" y="1629104"/>
+            <a:ext cx="549729" cy="269662"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="800" b="1" u="none"/>
+              <a:t>VEE</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="140" name="Straight Connector 139">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE11A35-3C87-44B2-86CD-B4D6125CFC25}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5654969" y="1872275"/>
+            <a:ext cx="334108" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>369459</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371920</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>41607</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="141" name="Connector: Elbow 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7ED121C-3A8E-4412-BF70-F73FFB91A197}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="0"/>
+          <a:endCxn id="139" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="5784559" y="2994825"/>
+          <a:ext cx="145061" cy="2461"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>78829</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>31531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>18958</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>117262</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="142" name="Group 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD495BA1-34A2-42B3-914C-90FC9E4379FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5565229" y="3636122"/>
+          <a:ext cx="549729" cy="271262"/>
+          <a:chOff x="5549462" y="1629104"/>
+          <a:chExt cx="549729" cy="269662"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="144" name="TextBox 143">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77D45A7E-53C5-42D9-B6AB-A016B013E071}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5549462" y="1629104"/>
+            <a:ext cx="549729" cy="269662"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="800" b="1" u="none"/>
+              <a:t>VEE</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="145" name="Straight Connector 144">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBA0102-8A3C-4D73-B89F-654964AEECCA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5654969" y="1872275"/>
+            <a:ext cx="334108" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>353695</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>117262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>355507</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>79498</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="Connector: Elbow 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD950406-8296-48E3-8B05-85BF96076E63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="0"/>
+          <a:endCxn id="144" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="5767917" y="3952143"/>
+          <a:ext cx="146167" cy="1812"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>94592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>39979</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180323</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="148" name="Group 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10EA3607-2015-45B3-831D-F9300FE496C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5586250" y="4812366"/>
+          <a:ext cx="549729" cy="271261"/>
+          <a:chOff x="5549462" y="1629104"/>
+          <a:chExt cx="549729" cy="269662"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="149" name="TextBox 148">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A22B0354-CA71-4696-9824-3C29CB41DA82}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5549462" y="1629104"/>
+            <a:ext cx="549729" cy="269662"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="800" b="1" u="none"/>
+              <a:t>VEE</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="150" name="Straight Connector 149">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609015B9-67C3-42AB-A821-CF43C2775C88}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5654969" y="1872275"/>
+            <a:ext cx="334108" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>374716</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180323</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>374845</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>157917</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="151" name="Connector: Elbow 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68FB30A9-CF2F-4C2B-B419-F9B8EE35ACAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="0"/>
+          <a:endCxn id="149" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="5780418" y="5127311"/>
+          <a:ext cx="161525" cy="129"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>278296</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>172277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>218425</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>72478</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="152" name="Group 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6091D60A-DCD4-4CFB-9AB5-FA4A56273602}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="887896" y="6374294"/>
+          <a:ext cx="549729" cy="271262"/>
+          <a:chOff x="5549462" y="1629104"/>
+          <a:chExt cx="549729" cy="269662"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="153" name="TextBox 152">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE797FD8-A517-400E-8CA7-B9819914A3D9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5549462" y="1629104"/>
+            <a:ext cx="549729" cy="269662"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="800" b="1" u="none"/>
+              <a:t>VEE</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="155" name="Straight Connector 154">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BA8AC2E-87AE-45FF-AF5E-230F5AFA47E2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5654969" y="1872275"/>
+            <a:ext cx="334108" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>282373</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>67789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>71027</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>160108</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="Rectangle 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A56279D2-DD1B-4027-93E3-9CDEBADC45E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1501573" y="6640867"/>
+          <a:ext cx="398254" cy="277850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> I/F</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>71027</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>604068</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>21183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="159" name="Straight Connector 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A09DF00B-4D39-4420-A103-BC7A737B2A5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="158" idx="3"/>
+          <a:endCxn id="160" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1899827" y="6777840"/>
+          <a:ext cx="533041" cy="1952"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>604068</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>94293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>139147</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="TextBox 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4822A5F8-B9F8-433A-BC5F-842F23560A7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2432868" y="6667371"/>
+          <a:ext cx="754279" cy="220938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>A4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" baseline="0"/>
+            <a:t> Battery V</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>553161</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>72478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>282373</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>21183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="162" name="Connector: Elbow 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA510CA5-BEED-48D7-9542-A0BB93A83FF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="158" idx="1"/>
+          <a:endCxn id="153" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1162761" y="6645556"/>
+          <a:ext cx="338812" cy="134236"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6234,8 +7565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DC308E-D68D-4438-86ED-09B22BF77128}">
   <dimension ref="D2:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A21" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
